--- a/Project/RTM/RTM_G3.xlsx
+++ b/Project/RTM/RTM_G3.xlsx
@@ -1,20 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25704"/>
   <workbookPr/>
+  <xr:revisionPtr revIDLastSave="34" documentId="11_572C6382864C4E0E0D669C1C7B7D8EB472A63A1E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{714EC000-F66B-4568-8C34-155E23039530}"/>
   <bookViews>
-    <workbookView xWindow="204" yWindow="564" windowWidth="13116" windowHeight="5244"/>
+    <workbookView xWindow="204" yWindow="564" windowWidth="13116" windowHeight="5244" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>Req</t>
   </si>
@@ -34,31 +48,76 @@
     <t>DP01</t>
   </si>
   <si>
+    <t>3.1.1</t>
+  </si>
+  <si>
     <t>DP02</t>
   </si>
   <si>
+    <t>3.1.2</t>
+  </si>
+  <si>
+    <t>main()</t>
+  </si>
+  <si>
     <t>DP03</t>
   </si>
   <si>
+    <t>3.1.3</t>
+  </si>
+  <si>
+    <t>getDefect()</t>
+  </si>
+  <si>
     <t>DP04</t>
   </si>
   <si>
+    <t>3.1.4</t>
+  </si>
+  <si>
+    <t>getEmployee()</t>
+  </si>
+  <si>
     <t>DP05</t>
   </si>
   <si>
+    <t>3.1.5</t>
+  </si>
+  <si>
+    <t>validDefect(), assignEmployee(), searchProgrammer()</t>
+  </si>
+  <si>
     <t>DP06</t>
   </si>
   <si>
+    <t>3.1.6</t>
+  </si>
+  <si>
+    <t>searchProgrammer()</t>
+  </si>
+  <si>
     <t>DP07</t>
   </si>
   <si>
+    <t>3.1.7</t>
+  </si>
+  <si>
+    <t>checkValidity(), invalidDefect(), unassignedDefect()</t>
+  </si>
+  <si>
     <t>DP08</t>
+  </si>
+  <si>
+    <t>3.1.8</t>
+  </si>
+  <si>
+    <t>createEmployeeFile()</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -72,11 +131,6 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -86,6 +140,11 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
     </font>
   </fonts>
   <fills count="3">
@@ -102,14 +161,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -156,30 +208,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -380,116 +436,154 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E993"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E994"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="3" max="3" width="29" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="54" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="30.109375" customWidth="1"/>
-    <col min="6" max="26" width="8.6640625" customWidth="1"/>
+    <col min="5" max="5" width="30.140625" customWidth="1"/>
+    <col min="6" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.4">
+    <row r="1" spans="1:5" ht="14.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.4">
+    <row r="2" spans="1:5" ht="16.5">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3"/>
+      <c r="B2" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="C2" s="4"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:5" ht="14.4">
+    <row r="3" spans="1:5" ht="16.5">
       <c r="A3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="D3" s="6"/>
-      <c r="E3" s="7"/>
+      <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" ht="14.4">
+    <row r="4" spans="1:5" ht="16.5">
       <c r="A4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="D4" s="6"/>
-      <c r="E4" s="5"/>
+      <c r="E4" s="6"/>
     </row>
-    <row r="5" spans="1:5" ht="14.4">
+    <row r="5" spans="1:5" ht="16.5">
       <c r="A5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="D5" s="6"/>
-      <c r="E5" s="5"/>
+      <c r="E5" s="6"/>
     </row>
-    <row r="6" spans="1:5" ht="14.4" hidden="1">
+    <row r="6" spans="1:5" ht="16.5" hidden="1">
       <c r="A6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="3"/>
+        <v>16</v>
+      </c>
+      <c r="B6" s="5"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" spans="1:5" ht="14.4">
+    <row r="7" spans="1:5" ht="16.5">
       <c r="A7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
+        <v>16</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
     </row>
-    <row r="8" spans="1:5" ht="14.4">
+    <row r="8" spans="1:5" ht="16.5">
       <c r="A8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
+        <v>19</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
     </row>
-    <row r="9" spans="1:5" ht="14.4">
+    <row r="9" spans="1:5" ht="16.5">
       <c r="A9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
+        <v>22</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="1:5" ht="14.4">
-      <c r="A10" s="8"/>
+    <row r="10" spans="1:5" ht="16.5">
+      <c r="A10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
     </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="11" spans="1:5" ht="14.45">
+      <c r="A11" s="3"/>
+    </row>
     <row r="15" spans="1:5" ht="15.75" customHeight="1"/>
     <row r="16" spans="1:5" ht="15.75" customHeight="1"/>
     <row r="17" ht="15.75" customHeight="1"/>
@@ -1469,8 +1563,200 @@
     <row r="991" ht="15.75" customHeight="1"/>
     <row r="992" ht="15.75" customHeight="1"/>
     <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004E0F2D14518B5045B0D90F64D5BF74B7" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0323fa2ca1e79cf6956f29dd7b1b616a">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="023f1dae-eefa-4464-9427-685eeabbe412" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4b46cb64d1d3339cecd6399b322d2ff3" ns2:_="">
+    <xsd:import namespace="023f1dae-eefa-4464-9427-685eeabbe412"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="023f1dae-eefa-4464-9427-685eeabbe412" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="11" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="dcc8788f-f679-4de9-afe2-1653e9c0f3dd" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="12" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="13" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="14" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="023f1dae-eefa-4464-9427-685eeabbe412">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58A56996-6111-468F-8CE8-4852BCF95273}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DBA9F8F6-D4D2-458C-A456-9F4F585DEB5C}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7BDC4F56-DFF9-48CD-9BBD-425F290F36B9}"/>
 </file>